--- a/hojas_de_costo_excel/reporteJob.xlsx
+++ b/hojas_de_costo_excel/reporteJob.xlsx
@@ -1,15 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83455341-464F-4A3A-BD93-DC4A96341369}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>ATL</t>
   </si>
@@ -41,24 +39,12 @@
     <t>Fecha fin</t>
   </si>
   <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>hoja de costos</t>
-  </si>
-  <si>
     <t>Descripcion de tarea</t>
   </si>
   <si>
-    <t>Revicion con interesados</t>
-  </si>
-  <si>
     <t>Recopilacion de Informacion de las hojas de costos</t>
   </si>
   <si>
-    <t>Analisis de calculos de costos</t>
-  </si>
-  <si>
     <t>Diseño de los algoritmos para los calculos</t>
   </si>
   <si>
@@ -71,13 +57,16 @@
     <t xml:space="preserve">Comprobación y depuración </t>
   </si>
   <si>
-    <t xml:space="preserve">CRONOGRAMA DE ACTIVIDADES - </t>
+    <t>Analisis de calculos de costos y diseño de base de datos</t>
+  </si>
+  <si>
+    <t>REPORTE DE ACTIVIDADES - Ing. Job Candia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,13 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -165,35 +153,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,427 +453,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26171875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.41796875" customWidth="1"/>
-    <col min="6" max="6" width="18.83984375" customWidth="1"/>
-    <col min="7" max="7" width="18.41796875" customWidth="1"/>
-    <col min="8" max="8" width="18.578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="10" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="14" t="s">
+    <row r="2" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43451</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43452</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43128</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43129</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43475</v>
+      </c>
+      <c r="H5" s="5">
+        <v>43476</v>
+      </c>
+      <c r="I5" s="5">
+        <v>43486</v>
+      </c>
+      <c r="J5" s="5">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>43453</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43454</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43131</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43467</v>
+      </c>
+      <c r="G6" s="7">
+        <v>43477</v>
+      </c>
+      <c r="H6" s="6">
+        <v>43479</v>
+      </c>
+      <c r="I6" s="7">
+        <v>43488</v>
+      </c>
+      <c r="J6" s="7">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="14"/>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="5">
+        <v>43455</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43458</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43468</v>
+      </c>
+      <c r="F7" s="6">
+        <v>43470</v>
+      </c>
+      <c r="G7" s="6">
+        <v>43480</v>
+      </c>
+      <c r="H7" s="6">
+        <v>43482</v>
+      </c>
+      <c r="I7" s="7">
+        <v>43491</v>
+      </c>
+      <c r="J7" s="7">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43459</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43461</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43472</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43474</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43483</v>
+      </c>
+      <c r="H8" s="7">
+        <v>43484</v>
+      </c>
+      <c r="I8" s="7">
+        <v>43494</v>
+      </c>
+      <c r="J8" s="7">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
-        <v>43451</v>
-      </c>
-      <c r="D5" s="6">
-        <v>43452</v>
-      </c>
-      <c r="E5" s="6">
-        <v>43128</v>
-      </c>
-      <c r="F5" s="6">
-        <v>43129</v>
-      </c>
-      <c r="G5" s="6">
-        <v>43475</v>
-      </c>
-      <c r="H5" s="6">
-        <v>43476</v>
-      </c>
-      <c r="I5" s="6">
-        <v>43486</v>
-      </c>
-      <c r="J5" s="6">
-        <v>43487</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="5">
+        <v>43497</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43500</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43497</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43500</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43497</v>
+      </c>
+      <c r="H9" s="5">
+        <v>43500</v>
+      </c>
+      <c r="I9" s="5">
+        <v>43497</v>
+      </c>
+      <c r="J9" s="5">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
-        <v>43453</v>
-      </c>
-      <c r="D6" s="6">
-        <v>43454</v>
-      </c>
-      <c r="E6" s="6">
-        <v>43131</v>
-      </c>
-      <c r="F6" s="6">
-        <v>43467</v>
-      </c>
-      <c r="G6" s="16">
-        <v>43477</v>
-      </c>
-      <c r="H6" s="15">
-        <v>43479</v>
-      </c>
-      <c r="I6" s="16">
-        <v>43488</v>
-      </c>
-      <c r="J6" s="16">
-        <v>43490</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="46.8" x14ac:dyDescent="0.6">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
-        <v>43455</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43458</v>
-      </c>
-      <c r="E7" s="6">
-        <v>43468</v>
-      </c>
-      <c r="F7" s="15">
-        <v>43470</v>
-      </c>
-      <c r="G7" s="15">
-        <v>43480</v>
-      </c>
-      <c r="H7" s="15">
-        <v>43482</v>
-      </c>
-      <c r="I7" s="16">
-        <v>43491</v>
-      </c>
-      <c r="J7" s="16">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6">
-        <v>43459</v>
-      </c>
-      <c r="D8" s="6">
-        <v>43461</v>
-      </c>
-      <c r="E8" s="6">
-        <v>43472</v>
-      </c>
-      <c r="F8" s="6">
-        <v>43474</v>
-      </c>
-      <c r="G8" s="16">
-        <v>43483</v>
-      </c>
-      <c r="H8" s="16">
-        <v>43484</v>
-      </c>
-      <c r="I8" s="16">
-        <v>43494</v>
-      </c>
-      <c r="J8" s="16">
-        <v>43496</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43497</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43500</v>
-      </c>
-      <c r="E9" s="6">
-        <v>43497</v>
-      </c>
-      <c r="F9" s="6">
-        <v>43500</v>
-      </c>
-      <c r="G9" s="6">
-        <v>43497</v>
-      </c>
-      <c r="H9" s="6">
-        <v>43500</v>
-      </c>
-      <c r="I9" s="6">
-        <v>43497</v>
-      </c>
-      <c r="J9" s="6">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43501</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>43504</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>43501</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>43504</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>43501</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>43504</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>43501</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>43504</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="B13" s="2"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="2"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="12">
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="13.578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>